--- a/Excel/本地化数据_时间.xlsx
+++ b/Excel/本地化数据_时间.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Steam\steamapps\common\WulinSH\Wulin_Data\StreamingAssets\ModEditor\ModEditor\Assets\_Mods\KoreanTranslation\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B16409D-8299-4A20-8FA0-B1F9CD647D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="5610" yWindow="1995" windowWidth="32040" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="404">
   <si>
     <t>备注</t>
   </si>
@@ -1031,30 +1037,315 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {0} 일</t>
+  </si>
+  <si>
+    <t>23:00&lt;size=16&gt;(자)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>23:15&lt;size=16&gt;(자)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>23:30&lt;size=16&gt;(자)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>23:45&lt;size=16&gt;(자)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>0:00&lt;size=16&gt;(자)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>0:15&lt;size=16&gt;(자)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>0:30&lt;size=16&gt;(자)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>0:45&lt;size=16&gt;(자)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>1:00&lt;size=16&gt;(축)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>1:15&lt;size=16&gt;(축)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>1:30&lt;size=16&gt;(축)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>1:45&lt;size=16&gt;(축)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>2:00&lt;size=16&gt;(축)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>2:15&lt;size=16&gt;(축)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>2:30&lt;size=16&gt;(축)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>2:45&lt;size=16&gt;(축)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>3:00&lt;size=16&gt;(인)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>3:15&lt;size=16&gt;(인)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>3:30&lt;size=16&gt;(인)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>3:45&lt;size=16&gt;(인)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>4:00&lt;size=16&gt;(인)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>4:15&lt;size=16&gt;(인)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>4:30&lt;size=16&gt;(인)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>4:45&lt;size=16&gt;(인)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>5:00&lt;size=16&gt;(묘)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>5:15&lt;size=16&gt;(묘)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>5:30&lt;size=16&gt;(묘)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>5:45&lt;size=16&gt;(묘)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>6:00&lt;size=16&gt;(묘)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>6:15&lt;size=16&gt;(묘)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>6:30&lt;size=16&gt;(묘)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>6:45&lt;size=16&gt;(묘)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>7:00&lt;size=16&gt;(진)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>7:15&lt;size=16&gt;(진)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>7:30&lt;size=16&gt;(진)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>7:45&lt;size=16&gt;(진)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>8:00&lt;size=16&gt;(진)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>8:15&lt;size=16&gt;(진)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>8:30&lt;size=16&gt;(진)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>8:45&lt;size=16&gt;(진)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>9:00&lt;size=16&gt;(사)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>9:15&lt;size=16&gt;(사)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>9:30&lt;size=16&gt;(사)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>9:45&lt;size=16&gt;(사)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>10:00&lt;size=16&gt;(사)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>10:15&lt;size=16&gt;(사)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>10:30&lt;size=16&gt;(사)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>10:45&lt;size=16&gt;(사)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>11:00&lt;size=16&gt;(오)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>11:15&lt;size=16&gt;(오)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>11:30&lt;size=16&gt;(오)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>11:45&lt;size=16&gt;(오)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>12:00&lt;size=16&gt;(오)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>12:15&lt;size=16&gt;(오)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>12:30&lt;size=16&gt;(오)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>12:45&lt;size=16&gt;(오)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>13:00&lt;size=16&gt;(미)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>13:15&lt;size=16&gt;(미)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>13:30&lt;size=16&gt;(미)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>13:45&lt;size=16&gt;(미)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>14:00&lt;size=16&gt;(미)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>14:15&lt;size=16&gt;(미)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>14:30&lt;size=16&gt;(미)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>14:45&lt;size=16&gt;(미)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>15:00&lt;size=16&gt;(신)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>15:15&lt;size=16&gt;(신)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>15:30&lt;size=16&gt;(신)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>15:45&lt;size=16&gt;(신)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>16:00&lt;size=16&gt;(신)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>16:15&lt;size=16&gt;(신)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>16:30&lt;size=16&gt;(신)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>16:45&lt;size=16&gt;(신)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>17:00&lt;size=16&gt;(유)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>17:15&lt;size=16&gt;(유)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>17:30&lt;size=16&gt;(유)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>17:45&lt;size=16&gt;(유)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>18:00&lt;size=16&gt;(유)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>18:15&lt;size=16&gt;(유)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>18:30&lt;size=16&gt;(유)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>18:45&lt;size=16&gt;(유)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>19:00&lt;size=16&gt;(술)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>19:15&lt;size=16&gt;(술)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>19:30&lt;size=16&gt;(술)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>19:45&lt;size=16&gt;(술)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>20:00&lt;size=16&gt;(술)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>20:15&lt;size=16&gt;(술)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>20:30&lt;size=16&gt;(술)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>20:45&lt;size=16&gt;(술)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>21:00&lt;size=16&gt;(해)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>21:15&lt;size=16&gt;(해)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>21:30&lt;size=16&gt;(해)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>21:45&lt;size=16&gt;(해)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>22:00&lt;size=16&gt;(해)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>22:15&lt;size=16&gt;(해)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>22:30&lt;size=16&gt;(해)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>22:45&lt;size=16&gt;(해)&lt;/size&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="맑은 고딕"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="맑은 고딕"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1062,343 +1353,27 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="맑은 고딕"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1426,319 +1401,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1996,25 +1685,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="34.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="43.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="58.25" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.75" style="1" customWidth="1"/>
@@ -2024,10 +1713,11 @@
     <col min="12" max="12" width="14.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="17.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +1737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -2065,7 +1755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
@@ -2083,7 +1773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12.75" spans="1:6">
+    <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2100,10 +1790,13 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:6">
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2119,11 +1812,14 @@
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:6">
+    <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2139,11 +1835,14 @@
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="28.5" spans="1:6">
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2159,11 +1858,14 @@
       <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="28.5" spans="1:6">
+    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2179,11 +1881,14 @@
       <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="28.5" spans="1:6">
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -2199,11 +1904,14 @@
       <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:6">
+    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2219,11 +1927,14 @@
       <c r="E10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="28.5" spans="1:6">
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -2239,11 +1950,14 @@
       <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="1:6">
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -2259,11 +1973,14 @@
       <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="28.5" spans="1:6">
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -2279,11 +1996,14 @@
       <c r="E13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="1:6">
+    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2299,11 +2019,14 @@
       <c r="E14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="28.5" spans="1:6">
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -2319,11 +2042,14 @@
       <c r="E15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="28.5" spans="1:6">
+    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -2339,11 +2065,14 @@
       <c r="E16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:6">
+    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2359,11 +2088,14 @@
       <c r="E17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" ht="28.5" spans="1:6">
+    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -2379,11 +2111,14 @@
       <c r="E18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" ht="28.5" spans="1:6">
+    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -2399,11 +2134,14 @@
       <c r="E19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" ht="28.5" spans="1:6">
+    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2419,11 +2157,14 @@
       <c r="E20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" ht="28.5" spans="1:6">
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -2439,11 +2180,14 @@
       <c r="E21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" ht="28.5" spans="1:6">
+    <row r="22" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2459,11 +2203,14 @@
       <c r="E22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" ht="28.5" spans="1:6">
+    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -2479,11 +2226,14 @@
       <c r="E23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" ht="28.5" spans="1:6">
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -2499,11 +2249,14 @@
       <c r="E24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" ht="28.5" spans="1:6">
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -2519,11 +2272,14 @@
       <c r="E25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" ht="28.5" spans="1:6">
+    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -2539,11 +2295,14 @@
       <c r="E26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" ht="28.5" spans="1:6">
+    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -2559,11 +2318,14 @@
       <c r="E27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" ht="28.5" spans="1:6">
+    <row r="28" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -2579,11 +2341,14 @@
       <c r="E28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="29" ht="28.5" spans="1:6">
+    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -2599,11 +2364,14 @@
       <c r="E29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="30" ht="28.5" spans="1:6">
+    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -2619,11 +2387,14 @@
       <c r="E30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" ht="28.5" spans="1:6">
+    <row r="31" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
@@ -2639,11 +2410,14 @@
       <c r="E31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" ht="28.5" spans="1:6">
+    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
@@ -2659,11 +2433,14 @@
       <c r="E32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" ht="28.5" spans="1:6">
+    <row r="33" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
@@ -2679,11 +2456,14 @@
       <c r="E33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" ht="28.5" spans="1:6">
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -2699,11 +2479,14 @@
       <c r="E34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" ht="28.5" spans="1:6">
+    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
@@ -2719,11 +2502,14 @@
       <c r="E35" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" ht="28.5" spans="1:6">
+    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -2739,11 +2525,14 @@
       <c r="E36" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" ht="28.5" spans="1:6">
+    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
@@ -2759,11 +2548,14 @@
       <c r="E37" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" ht="28.5" spans="1:6">
+    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
@@ -2779,11 +2571,14 @@
       <c r="E38" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" ht="28.5" spans="1:6">
+    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>13</v>
       </c>
@@ -2799,11 +2594,14 @@
       <c r="E39" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="40" ht="28.5" spans="1:6">
+    <row r="40" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
@@ -2819,11 +2617,14 @@
       <c r="E40" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" ht="28.5" spans="1:6">
+    <row r="41" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -2839,11 +2640,14 @@
       <c r="E41" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" ht="28.5" spans="1:6">
+    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -2859,11 +2663,14 @@
       <c r="E42" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" ht="28.5" spans="1:6">
+    <row r="43" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -2879,11 +2686,14 @@
       <c r="E43" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" ht="28.5" spans="1:6">
+    <row r="44" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -2899,11 +2709,14 @@
       <c r="E44" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" ht="28.5" spans="1:6">
+    <row r="45" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
@@ -2919,11 +2732,14 @@
       <c r="E45" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" ht="28.5" spans="1:6">
+    <row r="46" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -2939,11 +2755,14 @@
       <c r="E46" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47" ht="28.5" spans="1:6">
+    <row r="47" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -2959,11 +2778,14 @@
       <c r="E47" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" ht="28.5" spans="1:6">
+    <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>13</v>
       </c>
@@ -2979,11 +2801,14 @@
       <c r="E48" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" ht="28.5" spans="1:6">
+    <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
@@ -2999,11 +2824,14 @@
       <c r="E49" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" ht="28.5" spans="1:6">
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>13</v>
       </c>
@@ -3019,11 +2847,14 @@
       <c r="E50" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="51" ht="28.5" spans="1:6">
+    <row r="51" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>13</v>
       </c>
@@ -3039,11 +2870,14 @@
       <c r="E51" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="52" ht="28.5" spans="1:6">
+    <row r="52" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>13</v>
       </c>
@@ -3059,11 +2893,14 @@
       <c r="E52" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" ht="28.5" spans="1:6">
+    <row r="53" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>13</v>
       </c>
@@ -3079,11 +2916,14 @@
       <c r="E53" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" ht="28.5" spans="1:6">
+    <row r="54" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -3099,11 +2939,14 @@
       <c r="E54" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="55" ht="28.5" spans="1:6">
+    <row r="55" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
@@ -3119,11 +2962,14 @@
       <c r="E55" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56" ht="28.5" spans="1:6">
+    <row r="56" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>13</v>
       </c>
@@ -3139,11 +2985,14 @@
       <c r="E56" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" ht="28.5" spans="1:6">
+    <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
@@ -3159,11 +3008,14 @@
       <c r="E57" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" ht="28.5" spans="1:6">
+    <row r="58" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
@@ -3179,11 +3031,14 @@
       <c r="E58" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="59" ht="28.5" spans="1:6">
+    <row r="59" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>13</v>
       </c>
@@ -3199,11 +3054,14 @@
       <c r="E59" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="60" ht="28.5" spans="1:6">
+    <row r="60" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>13</v>
       </c>
@@ -3219,11 +3077,14 @@
       <c r="E60" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="61" ht="28.5" spans="1:6">
+    <row r="61" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
@@ -3239,11 +3100,14 @@
       <c r="E61" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="62" ht="28.5" spans="1:6">
+    <row r="62" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>13</v>
       </c>
@@ -3259,11 +3123,14 @@
       <c r="E62" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" ht="28.5" spans="1:6">
+    <row r="63" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>13</v>
       </c>
@@ -3279,11 +3146,14 @@
       <c r="E63" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="64" ht="28.5" spans="1:6">
+    <row r="64" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>13</v>
       </c>
@@ -3299,11 +3169,14 @@
       <c r="E64" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="65" ht="28.5" spans="1:6">
+    <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>13</v>
       </c>
@@ -3319,11 +3192,14 @@
       <c r="E65" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66" ht="28.5" spans="1:6">
+    <row r="66" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
@@ -3339,11 +3215,14 @@
       <c r="E66" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="28.5" spans="1:6">
+    <row r="67" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>13</v>
       </c>
@@ -3359,11 +3238,14 @@
       <c r="E67" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="68" ht="28.5" spans="1:6">
+    <row r="68" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>13</v>
       </c>
@@ -3379,11 +3261,14 @@
       <c r="E68" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="69" ht="28.5" spans="1:6">
+    <row r="69" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>13</v>
       </c>
@@ -3399,11 +3284,14 @@
       <c r="E69" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="70" ht="28.5" spans="1:6">
+    <row r="70" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>13</v>
       </c>
@@ -3419,11 +3307,14 @@
       <c r="E70" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="71" ht="28.5" spans="1:6">
+    <row r="71" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>13</v>
       </c>
@@ -3439,11 +3330,14 @@
       <c r="E71" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="72" ht="28.5" spans="1:6">
+    <row r="72" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>13</v>
       </c>
@@ -3459,11 +3353,14 @@
       <c r="E72" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="73" ht="28.5" spans="1:6">
+    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
@@ -3479,11 +3376,14 @@
       <c r="E73" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="74" ht="28.5" spans="1:6">
+    <row r="74" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>13</v>
       </c>
@@ -3499,11 +3399,14 @@
       <c r="E74" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="75" ht="28.5" spans="1:6">
+    <row r="75" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>13</v>
       </c>
@@ -3519,11 +3422,14 @@
       <c r="E75" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="76" ht="28.5" spans="1:6">
+    <row r="76" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>13</v>
       </c>
@@ -3539,11 +3445,14 @@
       <c r="E76" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="77" ht="28.5" spans="1:6">
+    <row r="77" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>13</v>
       </c>
@@ -3559,11 +3468,14 @@
       <c r="E77" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="78" ht="28.5" spans="1:6">
+    <row r="78" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>13</v>
       </c>
@@ -3579,11 +3491,14 @@
       <c r="E78" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="79" ht="28.5" spans="1:6">
+    <row r="79" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>13</v>
       </c>
@@ -3599,11 +3514,14 @@
       <c r="E79" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="80" ht="28.5" spans="1:6">
+    <row r="80" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>13</v>
       </c>
@@ -3619,11 +3537,14 @@
       <c r="E80" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="81" ht="28.5" spans="1:6">
+    <row r="81" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>13</v>
       </c>
@@ -3639,11 +3560,14 @@
       <c r="E81" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="82" ht="28.5" spans="1:6">
+    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>13</v>
       </c>
@@ -3659,11 +3583,14 @@
       <c r="E82" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="83" ht="28.5" spans="1:6">
+    <row r="83" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>13</v>
       </c>
@@ -3679,11 +3606,14 @@
       <c r="E83" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="84" ht="28.5" spans="1:6">
+    <row r="84" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>13</v>
       </c>
@@ -3699,11 +3629,14 @@
       <c r="E84" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="85" ht="28.5" spans="1:6">
+    <row r="85" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
@@ -3719,11 +3652,14 @@
       <c r="E85" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="86" ht="28.5" spans="1:6">
+    <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>13</v>
       </c>
@@ -3739,11 +3675,14 @@
       <c r="E86" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="87" ht="28.5" spans="1:6">
+    <row r="87" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>13</v>
       </c>
@@ -3759,11 +3698,14 @@
       <c r="E87" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="88" ht="28.5" spans="1:6">
+    <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>13</v>
       </c>
@@ -3779,11 +3721,14 @@
       <c r="E88" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="89" ht="28.5" spans="1:6">
+    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>13</v>
       </c>
@@ -3799,11 +3744,14 @@
       <c r="E89" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="90" ht="28.5" spans="1:6">
+    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>13</v>
       </c>
@@ -3819,11 +3767,14 @@
       <c r="E90" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="91" ht="28.5" spans="1:6">
+    <row r="91" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>13</v>
       </c>
@@ -3839,11 +3790,14 @@
       <c r="E91" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="92" ht="28.5" spans="1:6">
+    <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>13</v>
       </c>
@@ -3859,11 +3813,14 @@
       <c r="E92" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="93" ht="28.5" spans="1:6">
+    <row r="93" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>13</v>
       </c>
@@ -3879,11 +3836,14 @@
       <c r="E93" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="94" ht="28.5" spans="1:6">
+    <row r="94" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>13</v>
       </c>
@@ -3899,11 +3859,14 @@
       <c r="E94" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="95" ht="28.5" spans="1:6">
+    <row r="95" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>13</v>
       </c>
@@ -3919,11 +3882,14 @@
       <c r="E95" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="96" ht="28.5" spans="1:6">
+    <row r="96" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>13</v>
       </c>
@@ -3939,11 +3905,14 @@
       <c r="E96" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="97" ht="28.5" spans="1:6">
+    <row r="97" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>13</v>
       </c>
@@ -3959,11 +3928,14 @@
       <c r="E97" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="98" ht="28.5" spans="1:6">
+    <row r="98" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>13</v>
       </c>
@@ -3979,11 +3951,14 @@
       <c r="E98" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="99" ht="28.5" spans="1:6">
+    <row r="99" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>13</v>
       </c>
@@ -3999,11 +3974,14 @@
       <c r="E99" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="100" ht="28.5" spans="1:6">
+    <row r="100" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>13</v>
       </c>
@@ -4019,18 +3997,21 @@
       <c r="E100" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>306</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>